--- a/data/111/NYSE/NYSE Composite - Weekly.xlsx
+++ b/data/111/NYSE/NYSE Composite - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZZ2"/>
+  <dimension ref="A1:DAA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14004,15 +14004,20 @@
       </c>
       <c r="CZX1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="CZY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CZY1" s="1" t="inlineStr">
+      <c r="CZZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CZZ1" s="1" t="inlineStr">
+      <c r="DAA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -22200,19 +22205,22 @@
         <v>16792.8</v>
       </c>
       <c r="CZW2" t="n">
-        <v>16798.7</v>
-      </c>
-      <c r="CZX2" t="inlineStr">
+        <v>16787.8</v>
+      </c>
+      <c r="CZX2" t="n">
+        <v>16829.8</v>
+      </c>
+      <c r="CZY2" t="inlineStr">
         <is>
           <t>NYA</t>
         </is>
       </c>
-      <c r="CZY2" t="inlineStr">
+      <c r="CZZ2" t="inlineStr">
         <is>
           <t>New York Stock Exchange: NYSE Composite Index</t>
         </is>
       </c>
-      <c r="CZZ2" t="inlineStr">
+      <c r="DAA2" t="inlineStr">
         <is>
           <t>Index: 2002.12.31=5000</t>
         </is>

--- a/data/111/NYSE/NYSE Composite - Weekly.xlsx
+++ b/data/111/NYSE/NYSE Composite - Weekly.xlsx
@@ -22208,7 +22208,7 @@
         <v>16787.8</v>
       </c>
       <c r="CZX2" t="n">
-        <v>16829.8</v>
+        <v>16689.9</v>
       </c>
       <c r="CZY2" t="inlineStr">
         <is>
